--- a/GIS Specialization/Course5/Milestone2/data.xlsx
+++ b/GIS Specialization/Course5/Milestone2/data.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChristianV700\Documents\GitHub\ArcGIS\GIS Specialization\Course5\Milestone2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB43475-66BB-40B3-BA38-36033A8617DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7C243-9625-4EF9-B430-5E742F9928C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>Stansbury Oscillation</t>
   </si>
@@ -96,9 +105,6 @@
     <t>Size of glaciers governed by “lake-effect” moisture</t>
   </si>
   <si>
-    <t>1440 +- 10</t>
-  </si>
-  <si>
     <t>Provo Shoreline</t>
   </si>
   <si>
@@ -136,13 +142,246 @@
   </si>
   <si>
     <t>Great Salt Lake low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lowest point </t>
+  </si>
+  <si>
+    <t>Max epth</t>
+  </si>
+  <si>
+    <t>Age (ka)</t>
+  </si>
+  <si>
+    <t>elevation (m)</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Giblert</t>
+  </si>
+  <si>
+    <t>pre-Stansbury</t>
+  </si>
+  <si>
+    <t>Stansbury</t>
+  </si>
+  <si>
+    <t>Provo</t>
+  </si>
+  <si>
+    <t>Great Salt Lake historic Average</t>
+  </si>
+  <si>
+    <t>Bonneville Highstand</t>
+  </si>
+  <si>
+    <t>Stansbury Oscillation (1372 m)</t>
+  </si>
+  <si>
+    <t>Bonneville Highstand (1552)</t>
+  </si>
+  <si>
+    <t>Provo (1440 m)</t>
+  </si>
+  <si>
+    <t>Gilbert (1295 m)</t>
+  </si>
+  <si>
+    <t>Great Salt Lake (1285 m)</t>
+  </si>
+  <si>
+    <t>Great Salt Lake (1283 m) hist. avg.</t>
+  </si>
+  <si>
+    <t>Great Salt Lake (1282 m)</t>
+  </si>
+  <si>
+    <t>Great Salt Lake (1280 m)</t>
+  </si>
+  <si>
+    <t>Dashed line</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Time [ka]</t>
+  </si>
+  <si>
+    <t>25 – 24</t>
+  </si>
+  <si>
+    <t>18.6 – 17.5</t>
+  </si>
+  <si>
+    <t>17 – 15.2</t>
+  </si>
+  <si>
+    <t>12.9 – 11.6</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>Age From  [ka]</t>
+  </si>
+  <si>
+    <t>Age To [ka]</t>
+  </si>
+  <si>
+    <t>Duration [kyr]</t>
+  </si>
+  <si>
+    <t>Delta surface [km2]</t>
+  </si>
+  <si>
+    <t>Delta Volume [km3]</t>
+  </si>
+  <si>
+    <t>Water flux [km3/year]</t>
+  </si>
+  <si>
+    <t>Early Bonneville Highstand</t>
+  </si>
+  <si>
+    <t>End Stansbury Oscillation</t>
+  </si>
+  <si>
+    <t>End Bonneville Highstand</t>
+  </si>
+  <si>
+    <t>Early Provo</t>
+  </si>
+  <si>
+    <t>End Provo</t>
+  </si>
+  <si>
+    <t>Early Gilbert</t>
+  </si>
+  <si>
+    <t>End Gilbert</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>Flux graph</t>
+  </si>
+  <si>
+    <t>Flux Calc</t>
+  </si>
+  <si>
+    <t>Water level elevation graph</t>
+  </si>
+  <si>
+    <t>Flux data</t>
+  </si>
+  <si>
+    <r>
+      <t>Surface [km</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Volume [km</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Elevation [m]</t>
+  </si>
+  <si>
+    <t>Delta elevation [m]</t>
+  </si>
+  <si>
+    <t>Water level change [mm/year]</t>
+  </si>
+  <si>
+    <t>m3/s</t>
+  </si>
+  <si>
+    <t>m3/a</t>
+  </si>
+  <si>
+    <t>km3/a</t>
+  </si>
+  <si>
+    <t>Alexandra Falls (NW Territories, Canada)</t>
+  </si>
+  <si>
+    <t>Great Falls (Virginia, USA)</t>
+  </si>
+  <si>
+    <t>Murchison Falls (Uganda)</t>
+  </si>
+  <si>
+    <t>Flow rate comaprison</t>
+  </si>
+  <si>
+    <t>Niagara Falls</t>
+  </si>
+  <si>
+    <t>Bonneville Highstand Flood Event (0.5 kyrs)</t>
+  </si>
+  <si>
+    <t>Bonneville Highstand Flood Event (0.1 kyrs)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +389,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +435,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -173,13 +450,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,20 +571,5872 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Water Level</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$43:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D47A-4E82-BA80-85F82318D625}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Lake Bottom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$43:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$43:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D47A-4E82-BA80-85F82318D625}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1085365247"/>
+        <c:axId val="760379359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1085365247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age [ka]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760379359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="760379359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1600"/>
+          <c:min val="1200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elevation [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1085365247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water flux [km3/year]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$77:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$77:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2597962962962967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2597962962962967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.4176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.4176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6299565217391312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6299565217391312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.1413793103448276E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1413793103448276E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A9F-4453-8FC1-CC1CCB686DC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="767199343"/>
+        <c:axId val="767207999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="767199343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age [ka]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767207999"/>
+        <c:crossesAt val="-10"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="767207999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Water flux [km</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/year]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767199343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water level change [mm/year]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$77:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$77:$E$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>33.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-63.043478260869591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-63.043478260869591</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.00">
+                  <c:v>-1.0344827586206897</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.00">
+                  <c:v>-1.0344827586206897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5748-4754-BFA1-30C1466846B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="767199343"/>
+        <c:axId val="767207999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="767199343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age [ka]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767207999"/>
+        <c:crossesAt val="-250"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="767207999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Water level change [mm/year]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767199343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Water Level</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$43:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B96A-4D58-AA05-6CAE07F0C070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Lake Bottom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$43:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$43:$I$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B96A-4D58-AA05-6CAE07F0C070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1085365247"/>
+        <c:axId val="760379359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1085365247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age [ka]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760379359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="760379359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1600"/>
+          <c:min val="1200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elevation [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1085365247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water flux [km3/year]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$77:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$77:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2597962962962967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2597962962962967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.4176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.4176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.6299565217391312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6299565217391312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.1413793103448276E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1413793103448276E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D200-4F4E-ACE1-432978707F65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="767199343"/>
+        <c:axId val="767207999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="767199343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age [ka]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767207999"/>
+        <c:crossesAt val="-10"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="767207999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Water flux [km</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/year]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767199343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$E$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Water level change [mm/year]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$77:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$E$77:$E$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>33.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-63.043478260869591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-63.043478260869591</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.00">
+                  <c:v>-1.0344827586206897</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.00">
+                  <c:v>-1.0344827586206897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-785B-4F5B-82E8-887B945AA51C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="767199343"/>
+        <c:axId val="767207999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="767199343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age [ka]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767207999"/>
+        <c:crossesAt val="-250"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="767207999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Water level change [mm/year]</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="767199343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>49356</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83897</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -240,8 +6466,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9153525" y="838200"/>
-          <a:ext cx="3771900" cy="3095625"/>
+          <a:off x="10668000" y="838200"/>
+          <a:ext cx="4419600" cy="3627197"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -262,16 +6488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>606642</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>116033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -323,13 +6549,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -379,16 +6605,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -403,7 +6629,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10106025" y="4143375"/>
+          <a:off x="11906250" y="4657725"/>
           <a:ext cx="2095500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -487,6 +6713,775 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FD37B4-8143-498B-BD3C-5CD6E36445CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12270797" y="7505700"/>
+          <a:ext cx="5610226" cy="3122468"/>
+          <a:chOff x="7467599" y="7648575"/>
+          <a:chExt cx="4343401" cy="3105150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="Chart 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62B0FB7B-8695-4C4F-AB86-06EA8787BDD4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7467599" y="7648575"/>
+          <a:ext cx="4343401" cy="3105150"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AEAC25-F9D4-4E2F-9D40-FC06C6BC007C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9544050" y="7743825"/>
+            <a:ext cx="1396280" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Bonneville Highstand</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA5D788-D717-4284-85B3-DD2360A9087C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10829925" y="8734425"/>
+            <a:ext cx="785728" cy="436786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Stansbury</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Oscillation</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEB26EC8-E905-4A1D-B71A-23A22D4D7AA9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9610725" y="8486775"/>
+            <a:ext cx="519245" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Provo</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="TextBox 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55FA45C-CE68-492E-A4D1-6DCBEE4CE82C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9115425" y="9324975"/>
+            <a:ext cx="579198" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Gilbert</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9D0200-731C-421F-A80B-D717A9B48BE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8086725" y="9401175"/>
+            <a:ext cx="397801" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>GSL</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>363683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>147204</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2AF37C-541E-4E4C-8772-4E5E7AFDC179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>355024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>480581</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>29441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB9A85C-661A-4FE2-82A2-50A39A0B9099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63104</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E79EF3-999F-4CE3-B558-65814A6FBFBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4330304" cy="3105150"/>
+          <a:chOff x="7467599" y="7648575"/>
+          <a:chExt cx="4343401" cy="3105150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Chart 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D0D243-E80E-4254-9509-9572B6E4A3CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7467599" y="7648575"/>
+          <a:ext cx="4343401" cy="3105150"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CB5F7C-2197-46A6-ADD2-6D4B6EC76D62}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9544050" y="7743825"/>
+            <a:ext cx="1396280" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Bonneville Highstand</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0FCEA5-DDD0-4851-A3F2-C8AEAF530362}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10829925" y="8734425"/>
+            <a:ext cx="785728" cy="436786"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Stansbury</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Oscillation</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7393A201-153B-47F5-962D-4C62D9F204D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9610725" y="8486775"/>
+            <a:ext cx="519245" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Provo</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74250F67-DB03-4D3C-84AB-A964BF5F8BC8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9115425" y="9324975"/>
+            <a:ext cx="579198" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Gilbert</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48019950-FB2D-47C7-B4B8-3903AE30B3CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8086725" y="9401175"/>
+            <a:ext cx="397801" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>GSL</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>490971</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81395</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9178DA40-6A0F-4BB0-8386-1DACEAD788ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>490971</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81395</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B91FAC7-30DE-467F-B0A3-F098423D96E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -755,50 +7750,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AJ37"/>
+  <dimension ref="C2:AK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2">
+        <v>1277</v>
+      </c>
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="O3" t="s">
+    <row r="3" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
         <v>10</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -814,25 +7824,29 @@
       <c r="H5" t="s">
         <v>1</v>
       </c>
+      <c r="I5">
+        <f>L5-$J$2</f>
+        <v>95</v>
+      </c>
       <c r="J5" t="s">
         <v>5</v>
       </c>
       <c r="L5">
         <v>1372</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>6</v>
       </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ5" t="s">
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>18.600000000000001</v>
@@ -846,25 +7860,29 @@
       <c r="H6" t="s">
         <v>1</v>
       </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I16" si="0">L6-$J$2</f>
+        <v>275</v>
+      </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6">
         <v>1552</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>6</v>
       </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>17</v>
@@ -878,22 +7896,26 @@
       <c r="H8" t="s">
         <v>1</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
       <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
         <v>23</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8">
+        <v>1440</v>
+      </c>
+      <c r="N8" t="s">
         <v>6</v>
       </c>
-      <c r="N8" t="s">
-        <v>27</v>
+      <c r="O8" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>15.2</v>
@@ -908,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>20</v>
       </c>
@@ -924,38 +7946,50 @@
       <c r="H10" t="s">
         <v>1</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="J10" t="s">
         <v>4</v>
       </c>
       <c r="L10">
         <v>1295</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>6</v>
       </c>
-      <c r="N10" t="s">
-        <v>26</v>
+      <c r="O10" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="14" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L14">
         <v>1285</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>1280</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -995,27 +8029,1188 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>31</v>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>29</v>
+    <row r="41" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1290</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1372</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="4">
+        <v>30</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>24</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1372</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1552</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1552</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1440</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1440</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1295</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1295</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1285</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="57" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="3:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C59" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1372</v>
+      </c>
+      <c r="F59" s="10">
+        <v>25824.7</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1798.7</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C60" s="11"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="6">
+        <f>E61-E59</f>
+        <v>180</v>
+      </c>
+      <c r="I60" s="6">
+        <v>24</v>
+      </c>
+      <c r="J60" s="12">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K60" s="12">
+        <f>I60-J60</f>
+        <v>5.3999999999999986</v>
+      </c>
+      <c r="L60" s="13">
+        <f>E61-E59</f>
+        <v>180</v>
+      </c>
+      <c r="M60" s="13">
+        <f>(L60*1000)/(K60*1000)</f>
+        <v>33.333333333333343</v>
+      </c>
+      <c r="N60" s="13">
+        <f>F61-F59</f>
+        <v>23205.7</v>
+      </c>
+      <c r="O60" s="13">
+        <f>G61-G59</f>
+        <v>6802.9000000000005</v>
+      </c>
+      <c r="P60" s="13">
+        <f>O60/(K60*1000)</f>
+        <v>1.2597962962962967</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C61" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1552</v>
+      </c>
+      <c r="F61" s="10">
+        <v>49030.400000000001</v>
+      </c>
+      <c r="G61" s="10">
+        <v>8601.6</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="6">
+        <f>E63-E61</f>
+        <v>-112</v>
+      </c>
+      <c r="I62" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="J62" s="12">
+        <v>17</v>
+      </c>
+      <c r="K62" s="12">
+        <f>I62-J62</f>
+        <v>0.5</v>
+      </c>
+      <c r="L62" s="13">
+        <f>E63-E61</f>
+        <v>-112</v>
+      </c>
+      <c r="M62" s="13">
+        <f>(L62*1000)/(K62*1000)</f>
+        <v>-224</v>
+      </c>
+      <c r="N62" s="13">
+        <f>F63-F61</f>
+        <v>-13998.599999999999</v>
+      </c>
+      <c r="O62" s="13">
+        <f>G63-G61</f>
+        <v>-4708.8</v>
+      </c>
+      <c r="P62" s="13">
+        <f>O62/(K62*1000)</f>
+        <v>-9.4176000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C63" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1440</v>
+      </c>
+      <c r="F63" s="10">
+        <v>35031.800000000003</v>
+      </c>
+      <c r="G63" s="10">
+        <v>3892.8</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="6">
+        <f>E65-E63</f>
+        <v>-145</v>
+      </c>
+      <c r="I64" s="6">
+        <v>15.2</v>
+      </c>
+      <c r="J64" s="12">
+        <v>12.9</v>
+      </c>
+      <c r="K64" s="12">
+        <f>I64-J64</f>
+        <v>2.2999999999999989</v>
+      </c>
+      <c r="L64" s="13">
+        <f>E65-E63</f>
+        <v>-145</v>
+      </c>
+      <c r="M64" s="13">
+        <f>(L64*1000)/(K64*1000)</f>
+        <v>-63.043478260869591</v>
+      </c>
+      <c r="N64" s="13">
+        <f>F65-F63</f>
+        <v>-19815.700000000004</v>
+      </c>
+      <c r="O64" s="13">
+        <f>G65-G63</f>
+        <v>-3748.9</v>
+      </c>
+      <c r="P64" s="13">
+        <f>O64/(K64*1000)</f>
+        <v>-1.6299565217391312</v>
+      </c>
+    </row>
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C65" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1295</v>
+      </c>
+      <c r="F65" s="10">
+        <v>15216.1</v>
+      </c>
+      <c r="G65" s="9">
+        <v>143.9</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+    </row>
+    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="6">
+        <f>E67-E65</f>
+        <v>-10</v>
+      </c>
+      <c r="I66" s="6"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+    </row>
+    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C67" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1285</v>
+      </c>
+      <c r="F67" s="10">
+        <v>6471</v>
+      </c>
+      <c r="G67" s="9">
+        <v>23.7</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+    </row>
+    <row r="68" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="14">
+        <v>11.6</v>
+      </c>
+      <c r="J68" s="14">
+        <v>0</v>
+      </c>
+      <c r="K68" s="14">
+        <f>I68-J68</f>
+        <v>11.6</v>
+      </c>
+      <c r="L68" s="14">
+        <f>E69-E65</f>
+        <v>-12</v>
+      </c>
+      <c r="M68" s="15">
+        <f>(L68*1000)/(K68*1000)</f>
+        <v>-1.0344827586206897</v>
+      </c>
+      <c r="N68" s="14">
+        <f>F69-F65</f>
+        <v>-10061.299999999999</v>
+      </c>
+      <c r="O68" s="14">
+        <f>G69-G65</f>
+        <v>-132.4</v>
+      </c>
+      <c r="P68" s="14">
+        <f>O68/(K68*1000)</f>
+        <v>-1.1413793103448276E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C69" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1283</v>
+      </c>
+      <c r="F69" s="10">
+        <v>5154.8</v>
+      </c>
+      <c r="G69" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="2"/>
+    </row>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C70" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1282</v>
+      </c>
+      <c r="F70" s="10">
+        <v>4758.7</v>
+      </c>
+      <c r="G70" s="9">
+        <v>6.7</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="2"/>
+    </row>
+    <row r="71" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="18">
+        <v>1280</v>
+      </c>
+      <c r="F71" s="15">
+        <v>1445.6</v>
+      </c>
+      <c r="G71" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6">
+        <f>G61/G69</f>
+        <v>747.96521739130435</v>
+      </c>
+      <c r="H73" s="6">
+        <f>275/6</f>
+        <v>45.833333333333336</v>
+      </c>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+    </row>
+    <row r="75" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+    </row>
+    <row r="76" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+    </row>
+    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C77" s="6">
+        <f>I60</f>
+        <v>24</v>
+      </c>
+      <c r="D77" s="6">
+        <f>P60</f>
+        <v>1.2597962962962967</v>
+      </c>
+      <c r="E77" s="13">
+        <f>M60</f>
+        <v>33.333333333333343</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+    </row>
+    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C78" s="12">
+        <f>J60</f>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D78" s="6">
+        <f>$P$60</f>
+        <v>1.2597962962962967</v>
+      </c>
+      <c r="E78" s="13">
+        <f>M60</f>
+        <v>33.333333333333343</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C79" s="6">
+        <f>I62</f>
+        <v>17.5</v>
+      </c>
+      <c r="D79" s="6">
+        <f>P62</f>
+        <v>-9.4176000000000002</v>
+      </c>
+      <c r="E79" s="13">
+        <f>M62</f>
+        <v>-224</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+    </row>
+    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C80" s="12">
+        <f>J62</f>
+        <v>17</v>
+      </c>
+      <c r="D80" s="6">
+        <f>P62</f>
+        <v>-9.4176000000000002</v>
+      </c>
+      <c r="E80" s="13">
+        <f>M62</f>
+        <v>-224</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C81" s="6">
+        <f>I64</f>
+        <v>15.2</v>
+      </c>
+      <c r="D81" s="6">
+        <f>P64</f>
+        <v>-1.6299565217391312</v>
+      </c>
+      <c r="E81" s="13">
+        <f>M64</f>
+        <v>-63.043478260869591</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C82" s="12">
+        <f>J64</f>
+        <v>12.9</v>
+      </c>
+      <c r="D82" s="6">
+        <f>P64</f>
+        <v>-1.6299565217391312</v>
+      </c>
+      <c r="E82" s="13">
+        <f>M64</f>
+        <v>-63.043478260869591</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C83" s="6">
+        <f>I68</f>
+        <v>11.6</v>
+      </c>
+      <c r="D83" s="6">
+        <f>P68</f>
+        <v>-1.1413793103448276E-2</v>
+      </c>
+      <c r="E83" s="19">
+        <f>M68</f>
+        <v>-1.0344827586206897</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+    </row>
+    <row r="84" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="14">
+        <f>J68</f>
+        <v>0</v>
+      </c>
+      <c r="D84" s="14">
+        <f>P68</f>
+        <v>-1.1413793103448276E-2</v>
+      </c>
+      <c r="E84" s="15">
+        <f>M68</f>
+        <v>-1.0344827586206897</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C88" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C89" s="23"/>
+      <c r="D89" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="21">
+        <f>E90/1000000000</f>
+        <v>75.907151999999996</v>
+      </c>
+      <c r="E90">
+        <f>F90*60*60*24*365</f>
+        <v>75907152000</v>
+      </c>
+      <c r="F90" s="20">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C91" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" s="27">
+        <f>D93*5</f>
+        <v>47.088000000000001</v>
+      </c>
+      <c r="E91" s="28">
+        <f>E93*5</f>
+        <v>47088000000</v>
+      </c>
+      <c r="F91" s="29">
+        <f>F93*5</f>
+        <v>1493.1506849315067</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="21">
+        <f>E92/1000000000</f>
+        <v>14.948064</v>
+      </c>
+      <c r="E92">
+        <f>F92*60*60*24*365</f>
+        <v>14948064000</v>
+      </c>
+      <c r="F92">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C93" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" s="21">
+        <f>ABS($P$62)</f>
+        <v>9.4176000000000002</v>
+      </c>
+      <c r="E93">
+        <f>D93*1000000000</f>
+        <v>9417600000</v>
+      </c>
+      <c r="F93" s="22">
+        <f>E93/(60*60*24*365)</f>
+        <v>298.63013698630135</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" s="21">
+        <f>E94/1000000000</f>
+        <v>9.4608000000000008</v>
+      </c>
+      <c r="E94">
+        <f>F94*60*60*24*365</f>
+        <v>9460800000</v>
+      </c>
+      <c r="F94">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C95" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="25">
+        <f>E95/1000000000</f>
+        <v>8.8931520000000006</v>
+      </c>
+      <c r="E95" s="24">
+        <f>F95*60*60*24*365</f>
+        <v>8893152000</v>
+      </c>
+      <c r="F95" s="24">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD1ABB1-5432-44F9-8F40-56C33ED15B71}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9394ECB-4EC6-4EC3-80DA-1E7AA6BC523A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D249754-2856-4BEB-BAAB-7807795A9430}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/GIS Specialization/Course5/Milestone2/data.xlsx
+++ b/GIS Specialization/Course5/Milestone2/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChristianV700\Documents\GitHub\ArcGIS\GIS Specialization\Course5\Milestone2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7C243-9625-4EF9-B430-5E742F9928C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A87875A-D2FC-42F3-9A84-8C1DBF308B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7752,8 +7752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8721,7 +8721,9 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
+      <c r="N73" s="6">
+        <v>4709</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
     </row>
